--- a/python_automation/MICRO 0008.xlsx
+++ b/python_automation/MICRO 0008.xlsx
@@ -1406,16 +1406,18 @@
   </sheetPr>
   <dimension ref="A1:AQ410"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="13" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="29" style="0" width="10.43"/>
   </cols>
